--- a/biology/Botanique/McIntosh_(pomme)/McIntosh_(pomme).xlsx
+++ b/biology/Botanique/McIntosh_(pomme)/McIntosh_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">McIntosh est un cultivar de pommier domestique.
-Cette variété est depuis plus d'un siècle une des cinq variétés les plus utilisées par les obtenteurs pour créer de nouvelles variétés. En effet, 64 % des 439 variétés commerciales étudiées par Noiton et Alspach[1] en 1996 utilisent depuis plus d'un siècle seulement cinq géniteurs – Mc Intosh (101 cultivars), Golden Delicious (87 cultivars), Jonathan (74 cultivars), Red Delicious (56 cultivars) ou Cox's Orange Pippin (59 cultivars), respectivement quatre américaines et une anglaise – ou leur descendance[2].
+Cette variété est depuis plus d'un siècle une des cinq variétés les plus utilisées par les obtenteurs pour créer de nouvelles variétés. En effet, 64 % des 439 variétés commerciales étudiées par Noiton et Alspach en 1996 utilisent depuis plus d'un siècle seulement cinq géniteurs – Mc Intosh (101 cultivars), Golden Delicious (87 cultivars), Jonathan (74 cultivars), Red Delicious (56 cultivars) ou Cox's Orange Pippin (59 cultivars), respectivement quatre américaines et une anglaise – ou leur descendance.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de pomme doit son nom à John McIntosh, qui la découvrit au Canada en 1811. Elle a été importée en Europe en 1932.
-Détail hors du domaine de l'arboriculture : il semble que ce soit le nom de cette pomme qui soit à l'origine du nom de la gamme Macintosh du fabricant d'ordinateurs Apple[3].
+Détail hors du domaine de l'arboriculture : il semble que ce soit le nom de cette pomme qui soit à l'origine du nom de la gamme Macintosh du fabricant d'ordinateurs Apple.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La McIntosh est une pomme à peau rouge et épaisse. Sa chair blanche est tendre, juteuse et acidulée. Elle est tout particulièrement appréciée en Nouvelle-Angleterre, en Ontario et au Québec.
 </t>
@@ -575,7 +591,9 @@
           <t>Parentés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mutant :
 McIntosh Wijcik (colonnaire)
@@ -626,9 +644,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Partiellement autofertile[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partiellement autofertile.
 Groupe de floraison : A.
 S-génotype : S10S25
 </t>
@@ -659,9 +679,11 @@
           <t>Résistances et susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tavelure : susceptibilité élevée[5]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tavelure : susceptibilité élevée
 Mildiou : susceptibilité élevée
 Rouille : susceptibilité faible
 Feu bactérien : susceptibilité moyenne</t>
@@ -692,7 +714,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme McIntosh se récolte dès le début du mois de septembre.
 L'arbre est très rustique et vigoureux mais sensible aux principales maladies.
